--- a/BackTest/2020-01-13 BackTest DASH.xlsx
+++ b/BackTest/2020-01-13 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>412.1814</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>349.7833113400001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>337.4237113400001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>337.44371134</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>362.39424947</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>354.0542494700001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>352.19654947</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>352.19654947</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>318.00854947</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>318.47394947</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>318.47394947</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>323.8436494700001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>332.18364947</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>332.18364947</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>323.56434947</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>309.75154947</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -4609,14 +4609,10 @@
         <v>-225.1286505299999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>70550</v>
-      </c>
-      <c r="J128" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -4649,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4685,1796 +4675,1502 @@
         <v>-280.2412505299999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>70550</v>
-      </c>
-      <c r="J130" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>69600</v>
+      </c>
+      <c r="C131" t="n">
+        <v>70300</v>
+      </c>
+      <c r="D131" t="n">
+        <v>70300</v>
+      </c>
+      <c r="E131" t="n">
+        <v>69600</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-279.40125053</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>70250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>70250</v>
+      </c>
+      <c r="D132" t="n">
+        <v>70250</v>
+      </c>
+      <c r="E132" t="n">
+        <v>70250</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-282.40125053</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C133" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D133" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E133" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.9443</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-279.45695053</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C134" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D134" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E134" t="n">
+        <v>70750</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-279.45695053</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>71150</v>
+      </c>
+      <c r="C135" t="n">
+        <v>71150</v>
+      </c>
+      <c r="D135" t="n">
+        <v>71150</v>
+      </c>
+      <c r="E135" t="n">
+        <v>71150</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.03000702</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-279.4269435099999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C136" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D136" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-279.4869435099999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C137" t="n">
+        <v>70900</v>
+      </c>
+      <c r="D137" t="n">
+        <v>71200</v>
+      </c>
+      <c r="E137" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16.3094</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-295.7963435099999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C138" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D138" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E138" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.1156</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-295.9119435099999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>71300</v>
+      </c>
+      <c r="C139" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D139" t="n">
+        <v>71350</v>
+      </c>
+      <c r="E139" t="n">
+        <v>71150</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24.4457</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-271.4662435099999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C140" t="n">
+        <v>71250</v>
+      </c>
+      <c r="D140" t="n">
+        <v>71250</v>
+      </c>
+      <c r="E140" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.231</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-283.6972435099999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>70950</v>
+      </c>
+      <c r="D141" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E141" t="n">
+        <v>70850</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-295.6972435099999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>70950</v>
+      </c>
+      <c r="C142" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D142" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>70850</v>
+      </c>
+      <c r="F142" t="n">
+        <v>14</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-281.6972435099999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C143" t="n">
+        <v>70950</v>
+      </c>
+      <c r="D143" t="n">
+        <v>71050</v>
+      </c>
+      <c r="E143" t="n">
+        <v>70850</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-294.1972435099999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>71050</v>
+      </c>
+      <c r="C144" t="n">
+        <v>71300</v>
+      </c>
+      <c r="D144" t="n">
+        <v>71300</v>
+      </c>
+      <c r="E144" t="n">
+        <v>71050</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7.5561</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-286.6411435099999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>71400</v>
+      </c>
+      <c r="C145" t="n">
+        <v>71400</v>
+      </c>
+      <c r="D145" t="n">
+        <v>71400</v>
+      </c>
+      <c r="E145" t="n">
+        <v>71400</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.0445</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-285.5966435099999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>71550</v>
+      </c>
+      <c r="C146" t="n">
+        <v>71800</v>
+      </c>
+      <c r="D146" t="n">
+        <v>71800</v>
+      </c>
+      <c r="E146" t="n">
+        <v>71550</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-277.5966435099999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>71850</v>
+      </c>
+      <c r="C147" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D147" t="n">
+        <v>71900</v>
+      </c>
+      <c r="E147" t="n">
+        <v>71850</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-269.5966435099999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C148" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D148" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C149" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D149" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3.7311</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C150" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D150" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D151" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.2088</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C153" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D153" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E153" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31.504</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-264.8066435099998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C154" t="n">
+        <v>71200</v>
+      </c>
+      <c r="D154" t="n">
+        <v>71200</v>
+      </c>
+      <c r="E154" t="n">
+        <v>71200</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-264.8221435099998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C155" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-251.7221435099998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C156" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D156" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E156" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F156" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-251.7221435099998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C157" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-251.7221435099998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D158" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E158" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-251.7221435099998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C159" t="n">
+        <v>71950</v>
+      </c>
+      <c r="D159" t="n">
+        <v>71950</v>
+      </c>
+      <c r="E159" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-254.2221435099998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C160" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D160" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E160" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.3533</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-252.8688435099998</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D161" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-252.8688435099998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C162" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D162" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>11.3257</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-252.8688435099998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C163" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4.823</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-252.8688435099998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C164" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D164" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-252.8688435099998</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>71850</v>
+      </c>
+      <c r="C165" t="n">
+        <v>71850</v>
+      </c>
+      <c r="D165" t="n">
+        <v>71850</v>
+      </c>
+      <c r="E165" t="n">
+        <v>71850</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-252.8868435099998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>71700</v>
+      </c>
+      <c r="C166" t="n">
+        <v>71750</v>
+      </c>
+      <c r="D166" t="n">
+        <v>71750</v>
+      </c>
+      <c r="E166" t="n">
+        <v>71700</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-252.9180435099998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>71800</v>
+      </c>
+      <c r="C167" t="n">
+        <v>71800</v>
+      </c>
+      <c r="D167" t="n">
+        <v>71800</v>
+      </c>
+      <c r="E167" t="n">
+        <v>71800</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-252.9036435099999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C168" t="n">
+        <v>71950</v>
+      </c>
+      <c r="D168" t="n">
+        <v>71950</v>
+      </c>
+      <c r="E168" t="n">
+        <v>71900</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15.633</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-237.2706435099998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C169" t="n">
+        <v>70950</v>
+      </c>
+      <c r="D169" t="n">
+        <v>71950</v>
+      </c>
+      <c r="E169" t="n">
+        <v>70950</v>
+      </c>
+      <c r="F169" t="n">
+        <v>87.07860694</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-324.3492504499998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C170" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D170" t="n">
+        <v>71900</v>
+      </c>
+      <c r="E170" t="n">
+        <v>71650</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18.5549</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-305.7943504499999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C171" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D171" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>71900</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12.841</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-292.9533504499998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C172" t="n">
+        <v>71950</v>
+      </c>
+      <c r="D172" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-301.3033504499999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C173" t="n">
+        <v>71950</v>
+      </c>
+      <c r="D173" t="n">
+        <v>71950</v>
+      </c>
+      <c r="E173" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-301.3033504499999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D174" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-297.1433504499998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>72000</v>
+      </c>
+      <c r="C175" t="n">
+        <v>72100</v>
+      </c>
+      <c r="D175" t="n">
+        <v>72100</v>
+      </c>
+      <c r="E175" t="n">
+        <v>71950</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-286.6833504499999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>72000</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>69600</v>
-      </c>
-      <c r="C131" t="n">
-        <v>70300</v>
-      </c>
-      <c r="D131" t="n">
-        <v>70300</v>
-      </c>
-      <c r="E131" t="n">
-        <v>69600</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-279.40125053</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>70250</v>
-      </c>
-      <c r="C132" t="n">
-        <v>70250</v>
-      </c>
-      <c r="D132" t="n">
-        <v>70250</v>
-      </c>
-      <c r="E132" t="n">
-        <v>70250</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-282.40125053</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>70300</v>
-      </c>
-      <c r="J132" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C133" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D133" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E133" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2.9443</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-279.45695053</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C134" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D134" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E134" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-279.45695053</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>71150</v>
-      </c>
-      <c r="C135" t="n">
-        <v>71150</v>
-      </c>
-      <c r="D135" t="n">
-        <v>71150</v>
-      </c>
-      <c r="E135" t="n">
-        <v>71150</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.03000702</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-279.4269435099999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C136" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D136" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E136" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-279.4869435099999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C137" t="n">
-        <v>70900</v>
-      </c>
-      <c r="D137" t="n">
-        <v>71200</v>
-      </c>
-      <c r="E137" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F137" t="n">
-        <v>16.3094</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-295.7963435099999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C138" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D138" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E138" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.1156</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-295.9119435099999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>71300</v>
-      </c>
-      <c r="C139" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D139" t="n">
-        <v>71350</v>
-      </c>
-      <c r="E139" t="n">
-        <v>71150</v>
-      </c>
-      <c r="F139" t="n">
-        <v>24.4457</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-271.4662435099999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>71200</v>
-      </c>
-      <c r="C140" t="n">
-        <v>71250</v>
-      </c>
-      <c r="D140" t="n">
-        <v>71250</v>
-      </c>
-      <c r="E140" t="n">
-        <v>70900</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12.231</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-283.6972435099999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C141" t="n">
-        <v>70950</v>
-      </c>
-      <c r="D141" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E141" t="n">
-        <v>70850</v>
-      </c>
-      <c r="F141" t="n">
-        <v>12</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-295.6972435099999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>70950</v>
-      </c>
-      <c r="C142" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D142" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E142" t="n">
-        <v>70850</v>
-      </c>
-      <c r="F142" t="n">
-        <v>14</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-281.6972435099999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C143" t="n">
-        <v>70950</v>
-      </c>
-      <c r="D143" t="n">
-        <v>71050</v>
-      </c>
-      <c r="E143" t="n">
-        <v>70850</v>
-      </c>
-      <c r="F143" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-294.1972435099999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>71050</v>
-      </c>
-      <c r="C144" t="n">
-        <v>71300</v>
-      </c>
-      <c r="D144" t="n">
-        <v>71300</v>
-      </c>
-      <c r="E144" t="n">
-        <v>71050</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7.5561</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-286.6411435099999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>71400</v>
-      </c>
-      <c r="C145" t="n">
-        <v>71400</v>
-      </c>
-      <c r="D145" t="n">
-        <v>71400</v>
-      </c>
-      <c r="E145" t="n">
-        <v>71400</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.0445</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-285.5966435099999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>71550</v>
-      </c>
-      <c r="C146" t="n">
-        <v>71800</v>
-      </c>
-      <c r="D146" t="n">
-        <v>71800</v>
-      </c>
-      <c r="E146" t="n">
-        <v>71550</v>
-      </c>
-      <c r="F146" t="n">
-        <v>8</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-277.5966435099999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>71850</v>
-      </c>
-      <c r="C147" t="n">
-        <v>71900</v>
-      </c>
-      <c r="D147" t="n">
-        <v>71900</v>
-      </c>
-      <c r="E147" t="n">
-        <v>71850</v>
-      </c>
-      <c r="F147" t="n">
-        <v>8</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-269.5966435099999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C148" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D148" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E148" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F148" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C149" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D149" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E149" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3.7311</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C150" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D150" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E150" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E151" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>8</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.2088</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C153" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D153" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E153" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F153" t="n">
-        <v>31.504</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-264.8066435099998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>71200</v>
-      </c>
-      <c r="C154" t="n">
-        <v>71200</v>
-      </c>
-      <c r="D154" t="n">
-        <v>71200</v>
-      </c>
-      <c r="E154" t="n">
-        <v>71200</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-264.8221435099998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C155" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D155" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E155" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-251.7221435099998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C156" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D156" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E156" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F156" t="n">
-        <v>19.02</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-251.7221435099998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C157" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D157" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E157" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F157" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-251.7221435099998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C158" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D158" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E158" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F158" t="n">
-        <v>6</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-251.7221435099998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C159" t="n">
-        <v>71950</v>
-      </c>
-      <c r="D159" t="n">
-        <v>71950</v>
-      </c>
-      <c r="E159" t="n">
-        <v>71950</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-254.2221435099998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C160" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D160" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E160" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1.3533</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-252.8688435099998</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C161" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D161" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E161" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.6333</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-252.8688435099998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C162" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D162" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E162" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F162" t="n">
-        <v>11.3257</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-252.8688435099998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C163" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D163" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E163" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4.823</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-252.8688435099998</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>72000</v>
-      </c>
-      <c r="J163" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C164" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D164" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E164" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-252.8688435099998</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>72000</v>
-      </c>
-      <c r="J164" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>71850</v>
-      </c>
-      <c r="C165" t="n">
-        <v>71850</v>
-      </c>
-      <c r="D165" t="n">
-        <v>71850</v>
-      </c>
-      <c r="E165" t="n">
-        <v>71850</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-252.8868435099998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>71700</v>
-      </c>
-      <c r="C166" t="n">
-        <v>71750</v>
-      </c>
-      <c r="D166" t="n">
-        <v>71750</v>
-      </c>
-      <c r="E166" t="n">
-        <v>71700</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.0312</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-252.9180435099998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>71800</v>
-      </c>
-      <c r="C167" t="n">
-        <v>71800</v>
-      </c>
-      <c r="D167" t="n">
-        <v>71800</v>
-      </c>
-      <c r="E167" t="n">
-        <v>71800</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-252.9036435099999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>71900</v>
-      </c>
-      <c r="C168" t="n">
-        <v>71950</v>
-      </c>
-      <c r="D168" t="n">
-        <v>71950</v>
-      </c>
-      <c r="E168" t="n">
-        <v>71900</v>
-      </c>
-      <c r="F168" t="n">
-        <v>15.633</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-237.2706435099998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>71800</v>
-      </c>
-      <c r="J168" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C169" t="n">
-        <v>70950</v>
-      </c>
-      <c r="D169" t="n">
-        <v>71950</v>
-      </c>
-      <c r="E169" t="n">
-        <v>70950</v>
-      </c>
-      <c r="F169" t="n">
-        <v>87.07860694</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-324.3492504499998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>71950</v>
-      </c>
-      <c r="J169" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>71900</v>
-      </c>
-      <c r="C170" t="n">
-        <v>71900</v>
-      </c>
-      <c r="D170" t="n">
-        <v>71900</v>
-      </c>
-      <c r="E170" t="n">
-        <v>71650</v>
-      </c>
-      <c r="F170" t="n">
-        <v>18.5549</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-305.7943504499999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>70950</v>
-      </c>
-      <c r="J170" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>71900</v>
-      </c>
-      <c r="C171" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D171" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E171" t="n">
-        <v>71900</v>
-      </c>
-      <c r="F171" t="n">
-        <v>12.841</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-292.9533504499998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>71900</v>
-      </c>
-      <c r="J171" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C172" t="n">
-        <v>71950</v>
-      </c>
-      <c r="D172" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E172" t="n">
-        <v>71950</v>
-      </c>
-      <c r="F172" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-301.3033504499999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>72000</v>
-      </c>
-      <c r="J172" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C173" t="n">
-        <v>71950</v>
-      </c>
-      <c r="D173" t="n">
-        <v>71950</v>
-      </c>
-      <c r="E173" t="n">
-        <v>71950</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-301.3033504499999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>71950</v>
-      </c>
-      <c r="J173" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C174" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E174" t="n">
-        <v>72000</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-297.1433504499998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>71950</v>
-      </c>
-      <c r="J174" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>72000</v>
-      </c>
-      <c r="C175" t="n">
-        <v>72100</v>
-      </c>
-      <c r="D175" t="n">
-        <v>72100</v>
-      </c>
-      <c r="E175" t="n">
-        <v>71950</v>
-      </c>
-      <c r="F175" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-286.6833504499999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>72000</v>
-      </c>
-      <c r="J175" t="n">
-        <v>70550</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +6199,12 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>72100</v>
       </c>
-      <c r="J176" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6544,14 +6238,12 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>72050</v>
       </c>
-      <c r="J177" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6585,14 +6277,12 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>72050</v>
       </c>
-      <c r="J178" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,14 +6316,12 @@
         <v>-280.6833504499999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>72050</v>
       </c>
-      <c r="J179" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6667,14 +6355,12 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>72100</v>
       </c>
-      <c r="J180" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,14 +6394,12 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>72200</v>
       </c>
-      <c r="J181" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,14 +6433,12 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>72200</v>
       </c>
-      <c r="J182" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,12 +6472,12 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>70550</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>72200</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,14 +6511,12 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>72450</v>
       </c>
-      <c r="J184" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,14 +6550,12 @@
         <v>-258.3343504499999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>72450</v>
       </c>
-      <c r="J185" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,14 +6589,12 @@
         <v>-254.3343504499999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>72500</v>
       </c>
-      <c r="J186" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6952,14 +6628,12 @@
         <v>-175.5916504499999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>72750</v>
       </c>
-      <c r="J187" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6993,14 +6667,12 @@
         <v>-178.5916504499999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>72950</v>
       </c>
-      <c r="J188" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7034,14 +6706,10 @@
         <v>-159.4366504499999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>72800</v>
-      </c>
-      <c r="J189" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7075,14 +6743,10 @@
         <v>-126.0533504499999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>72900</v>
-      </c>
-      <c r="J190" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7116,14 +6780,10 @@
         <v>-68.75545044999987</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>73000</v>
-      </c>
-      <c r="J191" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7157,14 +6817,10 @@
         <v>-12.09113399999987</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>73250</v>
-      </c>
-      <c r="J192" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7198,14 +6854,10 @@
         <v>-12.09113399999987</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>73550</v>
-      </c>
-      <c r="J193" t="n">
-        <v>70550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7242,9 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,1076 +6928,1200 @@
         <v>-17.78973399999987</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>70550</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>73600</v>
+      </c>
+      <c r="C196" t="n">
+        <v>73600</v>
+      </c>
+      <c r="D196" t="n">
+        <v>73600</v>
+      </c>
+      <c r="E196" t="n">
+        <v>73600</v>
+      </c>
+      <c r="F196" t="n">
+        <v>24.7884</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-17.78973399999987</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>73950</v>
+      </c>
+      <c r="C197" t="n">
+        <v>73950</v>
+      </c>
+      <c r="D197" t="n">
+        <v>73950</v>
+      </c>
+      <c r="E197" t="n">
+        <v>73950</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-16.78973399999987</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>74050</v>
+      </c>
+      <c r="C198" t="n">
+        <v>74050</v>
+      </c>
+      <c r="D198" t="n">
+        <v>74050</v>
+      </c>
+      <c r="E198" t="n">
+        <v>74050</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-16.72323399999987</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>74150</v>
+      </c>
+      <c r="C199" t="n">
+        <v>74150</v>
+      </c>
+      <c r="D199" t="n">
+        <v>74150</v>
+      </c>
+      <c r="E199" t="n">
+        <v>74150</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1412</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-16.58203399999987</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>74150</v>
+      </c>
+      <c r="C200" t="n">
+        <v>74150</v>
+      </c>
+      <c r="D200" t="n">
+        <v>74150</v>
+      </c>
+      <c r="E200" t="n">
+        <v>74150</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-16.58203399999987</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>74200</v>
+      </c>
+      <c r="C201" t="n">
+        <v>74400</v>
+      </c>
+      <c r="D201" t="n">
+        <v>74400</v>
+      </c>
+      <c r="E201" t="n">
+        <v>74200</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-13.91203399999987</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>74450</v>
+      </c>
+      <c r="C202" t="n">
+        <v>74850</v>
+      </c>
+      <c r="D202" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E202" t="n">
+        <v>74400</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7.9927</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-5.919333999999865</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>74850</v>
+      </c>
+      <c r="C203" t="n">
+        <v>74850</v>
+      </c>
+      <c r="D203" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E203" t="n">
+        <v>74850</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.6101</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-5.919333999999865</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>74850</v>
+      </c>
+      <c r="C204" t="n">
+        <v>74850</v>
+      </c>
+      <c r="D204" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E204" t="n">
+        <v>74850</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.4292</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-5.919333999999865</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>74850</v>
+      </c>
+      <c r="C205" t="n">
+        <v>74850</v>
+      </c>
+      <c r="D205" t="n">
+        <v>74850</v>
+      </c>
+      <c r="E205" t="n">
+        <v>74850</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-5.919333999999865</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>74900</v>
+      </c>
+      <c r="C206" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D206" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E206" t="n">
+        <v>74900</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11.7305</v>
+      </c>
+      <c r="G206" t="n">
+        <v>5.811166000000134</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>75000</v>
+      </c>
+      <c r="C207" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E207" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5.811166000000134</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>75000</v>
+      </c>
+      <c r="C208" t="n">
+        <v>75100</v>
+      </c>
+      <c r="D208" t="n">
+        <v>75100</v>
+      </c>
+      <c r="E208" t="n">
+        <v>75000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>10.9806</v>
+      </c>
+      <c r="G208" t="n">
+        <v>16.79176600000013</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>75250</v>
+      </c>
+      <c r="C209" t="n">
+        <v>75250</v>
+      </c>
+      <c r="D209" t="n">
+        <v>75250</v>
+      </c>
+      <c r="E209" t="n">
+        <v>75250</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.9154</v>
+      </c>
+      <c r="G209" t="n">
+        <v>17.70716600000014</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>75250</v>
+      </c>
+      <c r="C210" t="n">
+        <v>75250</v>
+      </c>
+      <c r="D210" t="n">
+        <v>75750</v>
+      </c>
+      <c r="E210" t="n">
+        <v>75250</v>
+      </c>
+      <c r="F210" t="n">
+        <v>158.5937</v>
+      </c>
+      <c r="G210" t="n">
+        <v>17.70716600000014</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>75650</v>
+      </c>
+      <c r="C211" t="n">
+        <v>74600</v>
+      </c>
+      <c r="D211" t="n">
+        <v>75650</v>
+      </c>
+      <c r="E211" t="n">
+        <v>74600</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150.04004421</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-132.3328782099998</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>74700</v>
+      </c>
+      <c r="C212" t="n">
+        <v>74700</v>
+      </c>
+      <c r="D212" t="n">
+        <v>74700</v>
+      </c>
+      <c r="E212" t="n">
+        <v>74100</v>
+      </c>
+      <c r="F212" t="n">
+        <v>21.1473</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-111.1855782099998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>74700</v>
+      </c>
+      <c r="C213" t="n">
+        <v>74800</v>
+      </c>
+      <c r="D213" t="n">
+        <v>75200</v>
+      </c>
+      <c r="E213" t="n">
+        <v>74700</v>
+      </c>
+      <c r="F213" t="n">
+        <v>56.39869183</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-54.78688637999985</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>75200</v>
+      </c>
+      <c r="C214" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D214" t="n">
+        <v>75200</v>
+      </c>
+      <c r="E214" t="n">
+        <v>74950</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8.4026</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-46.38428637999985</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C215" t="n">
+        <v>75600</v>
+      </c>
+      <c r="D215" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E215" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F215" t="n">
+        <v>18.7567</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-27.62758637999985</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C216" t="n">
+        <v>75600</v>
+      </c>
+      <c r="D216" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E216" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-27.62758637999985</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C217" t="n">
+        <v>75600</v>
+      </c>
+      <c r="D217" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E217" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-27.62758637999985</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C218" t="n">
+        <v>75600</v>
+      </c>
+      <c r="D218" t="n">
+        <v>75600</v>
+      </c>
+      <c r="E218" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F218" t="n">
+        <v>33.844</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-27.62758637999985</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>75600</v>
+      </c>
+      <c r="C219" t="n">
+        <v>75800</v>
+      </c>
+      <c r="D219" t="n">
+        <v>75800</v>
+      </c>
+      <c r="E219" t="n">
+        <v>75600</v>
+      </c>
+      <c r="F219" t="n">
+        <v>14.7612</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-12.86638637999985</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>75800</v>
+      </c>
+      <c r="C220" t="n">
+        <v>75900</v>
+      </c>
+      <c r="D220" t="n">
+        <v>75900</v>
+      </c>
+      <c r="E220" t="n">
+        <v>75800</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.0006</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-10.86578637999985</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>76000</v>
+      </c>
+      <c r="C221" t="n">
+        <v>76500</v>
+      </c>
+      <c r="D221" t="n">
+        <v>76500</v>
+      </c>
+      <c r="E221" t="n">
+        <v>76000</v>
+      </c>
+      <c r="F221" t="n">
+        <v>185.7618</v>
+      </c>
+      <c r="G221" t="n">
+        <v>174.8960136200001</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>76500</v>
+      </c>
+      <c r="C222" t="n">
+        <v>76600</v>
+      </c>
+      <c r="D222" t="n">
+        <v>76600</v>
+      </c>
+      <c r="E222" t="n">
+        <v>76500</v>
+      </c>
+      <c r="F222" t="n">
+        <v>21.971</v>
+      </c>
+      <c r="G222" t="n">
+        <v>196.8670136200001</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>76250</v>
+      </c>
+      <c r="C223" t="n">
+        <v>76250</v>
+      </c>
+      <c r="D223" t="n">
+        <v>76250</v>
+      </c>
+      <c r="E223" t="n">
+        <v>76250</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>195.8670136200001</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>76250</v>
+      </c>
+      <c r="C224" t="n">
+        <v>76500</v>
+      </c>
+      <c r="D224" t="n">
+        <v>76500</v>
+      </c>
+      <c r="E224" t="n">
+        <v>76250</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21.1477</v>
+      </c>
+      <c r="G224" t="n">
+        <v>217.0147136200001</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>76450</v>
+      </c>
+      <c r="C225" t="n">
+        <v>76450</v>
+      </c>
+      <c r="D225" t="n">
+        <v>76450</v>
+      </c>
+      <c r="E225" t="n">
+        <v>76400</v>
+      </c>
+      <c r="F225" t="n">
+        <v>21.8817</v>
+      </c>
+      <c r="G225" t="n">
+        <v>195.1330136200001</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>76450</v>
+      </c>
+      <c r="C226" t="n">
+        <v>76500</v>
+      </c>
+      <c r="D226" t="n">
+        <v>76500</v>
+      </c>
+      <c r="E226" t="n">
+        <v>76450</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G226" t="n">
+        <v>195.6530136200001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>76050</v>
+      </c>
+      <c r="C227" t="n">
+        <v>75300</v>
+      </c>
+      <c r="D227" t="n">
+        <v>76500</v>
+      </c>
+      <c r="E227" t="n">
+        <v>75300</v>
+      </c>
+      <c r="F227" t="n">
+        <v>85.9171</v>
+      </c>
+      <c r="G227" t="n">
+        <v>109.7359136200001</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1.038231750531538</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>73600</v>
-      </c>
-      <c r="C196" t="n">
-        <v>73600</v>
-      </c>
-      <c r="D196" t="n">
-        <v>73600</v>
-      </c>
-      <c r="E196" t="n">
-        <v>73600</v>
-      </c>
-      <c r="F196" t="n">
-        <v>24.7884</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-17.78973399999987</v>
-      </c>
-      <c r="H196" t="n">
-        <v>3</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>73950</v>
-      </c>
-      <c r="C197" t="n">
-        <v>73950</v>
-      </c>
-      <c r="D197" t="n">
-        <v>73950</v>
-      </c>
-      <c r="E197" t="n">
-        <v>73950</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-16.78973399999987</v>
-      </c>
-      <c r="H197" t="n">
-        <v>3</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>74050</v>
-      </c>
-      <c r="C198" t="n">
-        <v>74050</v>
-      </c>
-      <c r="D198" t="n">
-        <v>74050</v>
-      </c>
-      <c r="E198" t="n">
-        <v>74050</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0665</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-16.72323399999987</v>
-      </c>
-      <c r="H198" t="n">
-        <v>3</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>74150</v>
-      </c>
-      <c r="C199" t="n">
-        <v>74150</v>
-      </c>
-      <c r="D199" t="n">
-        <v>74150</v>
-      </c>
-      <c r="E199" t="n">
-        <v>74150</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.1412</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-16.58203399999987</v>
-      </c>
-      <c r="H199" t="n">
-        <v>3</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>74150</v>
-      </c>
-      <c r="C200" t="n">
-        <v>74150</v>
-      </c>
-      <c r="D200" t="n">
-        <v>74150</v>
-      </c>
-      <c r="E200" t="n">
-        <v>74150</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-16.58203399999987</v>
-      </c>
-      <c r="H200" t="n">
-        <v>3</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>74200</v>
-      </c>
-      <c r="C201" t="n">
-        <v>74400</v>
-      </c>
-      <c r="D201" t="n">
-        <v>74400</v>
-      </c>
-      <c r="E201" t="n">
-        <v>74200</v>
-      </c>
-      <c r="F201" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-13.91203399999987</v>
-      </c>
-      <c r="H201" t="n">
-        <v>3</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>74450</v>
-      </c>
-      <c r="C202" t="n">
-        <v>74850</v>
-      </c>
-      <c r="D202" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E202" t="n">
-        <v>74400</v>
-      </c>
-      <c r="F202" t="n">
-        <v>7.9927</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-5.919333999999865</v>
-      </c>
-      <c r="H202" t="n">
-        <v>3</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>74850</v>
-      </c>
-      <c r="C203" t="n">
-        <v>74850</v>
-      </c>
-      <c r="D203" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E203" t="n">
-        <v>74850</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.6101</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-5.919333999999865</v>
-      </c>
-      <c r="H203" t="n">
-        <v>3</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>74850</v>
-      </c>
-      <c r="C204" t="n">
-        <v>74850</v>
-      </c>
-      <c r="D204" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E204" t="n">
-        <v>74850</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.4292</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-5.919333999999865</v>
-      </c>
-      <c r="H204" t="n">
-        <v>3</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>74850</v>
-      </c>
-      <c r="C205" t="n">
-        <v>74850</v>
-      </c>
-      <c r="D205" t="n">
-        <v>74850</v>
-      </c>
-      <c r="E205" t="n">
-        <v>74850</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-5.919333999999865</v>
-      </c>
-      <c r="H205" t="n">
-        <v>3</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>74900</v>
-      </c>
-      <c r="C206" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D206" t="n">
-        <v>75000</v>
-      </c>
-      <c r="E206" t="n">
-        <v>74900</v>
-      </c>
-      <c r="F206" t="n">
-        <v>11.7305</v>
-      </c>
-      <c r="G206" t="n">
-        <v>5.811166000000134</v>
-      </c>
-      <c r="H206" t="n">
-        <v>3</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>75000</v>
-      </c>
-      <c r="C207" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D207" t="n">
-        <v>75000</v>
-      </c>
-      <c r="E207" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F207" t="n">
-        <v>18.0153</v>
-      </c>
-      <c r="G207" t="n">
-        <v>5.811166000000134</v>
-      </c>
-      <c r="H207" t="n">
-        <v>3</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>75000</v>
-      </c>
-      <c r="C208" t="n">
-        <v>75100</v>
-      </c>
-      <c r="D208" t="n">
-        <v>75100</v>
-      </c>
-      <c r="E208" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F208" t="n">
-        <v>10.9806</v>
-      </c>
-      <c r="G208" t="n">
-        <v>16.79176600000013</v>
-      </c>
-      <c r="H208" t="n">
-        <v>3</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>75250</v>
-      </c>
-      <c r="C209" t="n">
-        <v>75250</v>
-      </c>
-      <c r="D209" t="n">
-        <v>75250</v>
-      </c>
-      <c r="E209" t="n">
-        <v>75250</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.9154</v>
-      </c>
-      <c r="G209" t="n">
-        <v>17.70716600000014</v>
-      </c>
-      <c r="H209" t="n">
-        <v>3</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>75250</v>
-      </c>
-      <c r="C210" t="n">
-        <v>75250</v>
-      </c>
-      <c r="D210" t="n">
-        <v>75750</v>
-      </c>
-      <c r="E210" t="n">
-        <v>75250</v>
-      </c>
-      <c r="F210" t="n">
-        <v>158.5937</v>
-      </c>
-      <c r="G210" t="n">
-        <v>17.70716600000014</v>
-      </c>
-      <c r="H210" t="n">
-        <v>3</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>75650</v>
-      </c>
-      <c r="C211" t="n">
-        <v>74600</v>
-      </c>
-      <c r="D211" t="n">
-        <v>75650</v>
-      </c>
-      <c r="E211" t="n">
-        <v>74600</v>
-      </c>
-      <c r="F211" t="n">
-        <v>150.04004421</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-132.3328782099998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>3</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>74700</v>
-      </c>
-      <c r="C212" t="n">
-        <v>74700</v>
-      </c>
-      <c r="D212" t="n">
-        <v>74700</v>
-      </c>
-      <c r="E212" t="n">
-        <v>74100</v>
-      </c>
-      <c r="F212" t="n">
-        <v>21.1473</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-111.1855782099998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>3</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>74700</v>
-      </c>
-      <c r="C213" t="n">
-        <v>74800</v>
-      </c>
-      <c r="D213" t="n">
-        <v>75200</v>
-      </c>
-      <c r="E213" t="n">
-        <v>74700</v>
-      </c>
-      <c r="F213" t="n">
-        <v>56.39869183</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-54.78688637999985</v>
-      </c>
-      <c r="H213" t="n">
-        <v>3</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>75200</v>
-      </c>
-      <c r="C214" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D214" t="n">
-        <v>75200</v>
-      </c>
-      <c r="E214" t="n">
-        <v>74950</v>
-      </c>
-      <c r="F214" t="n">
-        <v>8.4026</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-46.38428637999985</v>
-      </c>
-      <c r="H214" t="n">
-        <v>3</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C215" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D215" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E215" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F215" t="n">
-        <v>18.7567</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-27.62758637999985</v>
-      </c>
-      <c r="H215" t="n">
-        <v>3</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C216" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D216" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E216" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F216" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-27.62758637999985</v>
-      </c>
-      <c r="H216" t="n">
-        <v>3</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C217" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D217" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E217" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F217" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-27.62758637999985</v>
-      </c>
-      <c r="H217" t="n">
-        <v>3</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C218" t="n">
-        <v>75600</v>
-      </c>
-      <c r="D218" t="n">
-        <v>75600</v>
-      </c>
-      <c r="E218" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F218" t="n">
-        <v>33.844</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-27.62758637999985</v>
-      </c>
-      <c r="H218" t="n">
-        <v>3</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>75600</v>
-      </c>
-      <c r="C219" t="n">
-        <v>75800</v>
-      </c>
-      <c r="D219" t="n">
-        <v>75800</v>
-      </c>
-      <c r="E219" t="n">
-        <v>75600</v>
-      </c>
-      <c r="F219" t="n">
-        <v>14.7612</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-12.86638637999985</v>
-      </c>
-      <c r="H219" t="n">
-        <v>3</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>75800</v>
-      </c>
-      <c r="C220" t="n">
-        <v>75900</v>
-      </c>
-      <c r="D220" t="n">
-        <v>75900</v>
-      </c>
-      <c r="E220" t="n">
-        <v>75800</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2.0006</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-10.86578637999985</v>
-      </c>
-      <c r="H220" t="n">
-        <v>3</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>76000</v>
-      </c>
-      <c r="C221" t="n">
-        <v>76500</v>
-      </c>
-      <c r="D221" t="n">
-        <v>76500</v>
-      </c>
-      <c r="E221" t="n">
-        <v>76000</v>
-      </c>
-      <c r="F221" t="n">
-        <v>185.7618</v>
-      </c>
-      <c r="G221" t="n">
-        <v>174.8960136200001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>76500</v>
-      </c>
-      <c r="C222" t="n">
-        <v>76600</v>
-      </c>
-      <c r="D222" t="n">
-        <v>76600</v>
-      </c>
-      <c r="E222" t="n">
-        <v>76500</v>
-      </c>
-      <c r="F222" t="n">
-        <v>21.971</v>
-      </c>
-      <c r="G222" t="n">
-        <v>196.8670136200001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>76250</v>
-      </c>
-      <c r="C223" t="n">
-        <v>76250</v>
-      </c>
-      <c r="D223" t="n">
-        <v>76250</v>
-      </c>
-      <c r="E223" t="n">
-        <v>76250</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1</v>
-      </c>
-      <c r="G223" t="n">
-        <v>195.8670136200001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>76250</v>
-      </c>
-      <c r="C224" t="n">
-        <v>76500</v>
-      </c>
-      <c r="D224" t="n">
-        <v>76500</v>
-      </c>
-      <c r="E224" t="n">
-        <v>76250</v>
-      </c>
-      <c r="F224" t="n">
-        <v>21.1477</v>
-      </c>
-      <c r="G224" t="n">
-        <v>217.0147136200001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>3</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>76450</v>
-      </c>
-      <c r="C225" t="n">
-        <v>76450</v>
-      </c>
-      <c r="D225" t="n">
-        <v>76450</v>
-      </c>
-      <c r="E225" t="n">
-        <v>76400</v>
-      </c>
-      <c r="F225" t="n">
-        <v>21.8817</v>
-      </c>
-      <c r="G225" t="n">
-        <v>195.1330136200001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>76450</v>
-      </c>
-      <c r="C226" t="n">
-        <v>76500</v>
-      </c>
-      <c r="D226" t="n">
-        <v>76500</v>
-      </c>
-      <c r="E226" t="n">
-        <v>76450</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G226" t="n">
-        <v>195.6530136200001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>76050</v>
-      </c>
-      <c r="C227" t="n">
-        <v>75300</v>
-      </c>
-      <c r="D227" t="n">
-        <v>76500</v>
-      </c>
-      <c r="E227" t="n">
-        <v>75300</v>
-      </c>
-      <c r="F227" t="n">
-        <v>85.9171</v>
-      </c>
-      <c r="G227" t="n">
-        <v>109.7359136200001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8406,7 +8180,7 @@
         <v>99.43951362000014</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8439,7 +8213,7 @@
         <v>99.44651362000015</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8472,7 +8246,7 @@
         <v>111.8870136200001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8505,7 +8279,7 @@
         <v>114.6934201300001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8538,7 +8312,7 @@
         <v>116.9379201300002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8571,7 +8345,7 @@
         <v>82.59462013000015</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8604,7 +8378,7 @@
         <v>82.61462013000015</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8637,7 +8411,7 @@
         <v>100.9958201300001</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8670,7 +8444,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8703,7 +8477,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8736,7 +8510,7 @@
         <v>110.1984201300001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8769,7 +8543,7 @@
         <v>164.5988201300001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8802,7 +8576,7 @@
         <v>96.25572013000014</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8835,7 +8609,7 @@
         <v>72.06952013000014</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8868,7 +8642,7 @@
         <v>72.11396013000014</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8901,7 +8675,7 @@
         <v>71.96596013000014</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8934,7 +8708,7 @@
         <v>78.47985539000014</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8967,7 +8741,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9000,7 +8774,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9033,7 +8807,7 @@
         <v>79.77376013000014</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9165,7 +8939,7 @@
         <v>48.59516013000014</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9264,7 +9038,7 @@
         <v>19.05636013000014</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9330,7 +9104,7 @@
         <v>18.04426013000014</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9363,7 +9137,7 @@
         <v>26.47796013000014</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9462,7 +9236,7 @@
         <v>15.89276013000014</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9495,7 +9269,7 @@
         <v>24.21276013000014</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9528,7 +9302,7 @@
         <v>24.21276013000014</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9561,7 +9335,7 @@
         <v>24.22956013000014</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9594,7 +9368,7 @@
         <v>17.05196013000014</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9825,7 +9599,7 @@
         <v>1.71636013000014</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -13587,7 +13361,7 @@
         <v>-603.7942747999998</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13653,7 +13427,7 @@
         <v>-501.9464747999998</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13686,7 +13460,7 @@
         <v>-501.9109747999998</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13719,7 +13493,7 @@
         <v>-502.1209747999998</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13785,7 +13559,7 @@
         <v>-534.3769747999997</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13818,7 +13592,7 @@
         <v>-522.2084747999997</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14907,10 +14681,14 @@
         <v>-783.3477678899999</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>71850</v>
+      </c>
+      <c r="J426" t="n">
+        <v>71850</v>
+      </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
@@ -14940,11 +14718,19 @@
         <v>-782.7866678899999</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>72400</v>
+      </c>
+      <c r="J427" t="n">
+        <v>71850</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14976,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>71850</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15006,10 +14798,14 @@
         <v>-859.3401678899999</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>72500</v>
+      </c>
+      <c r="J429" t="n">
+        <v>72500</v>
+      </c>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
@@ -15039,11 +14835,19 @@
         <v>-853.8441678899999</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>72250</v>
+      </c>
+      <c r="J430" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15072,11 +14876,19 @@
         <v>-852.5657678899998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>72300</v>
+      </c>
+      <c r="J431" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15105,11 +14917,19 @@
         <v>-852.5657678899998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>73050</v>
+      </c>
+      <c r="J432" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15138,11 +14958,19 @@
         <v>-856.7257678899998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>73050</v>
+      </c>
+      <c r="J433" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +15002,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15204,11 +15038,19 @@
         <v>-856.7257678899998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>73000</v>
+      </c>
+      <c r="J435" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +15082,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15270,11 +15118,19 @@
         <v>-807.4551047499998</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>73800</v>
+      </c>
+      <c r="J437" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15303,11 +15159,19 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>72950</v>
+      </c>
+      <c r="J438" t="n">
+        <v>72500</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15336,15 +15200,19 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>73000</v>
       </c>
       <c r="J439" t="n">
-        <v>73000</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+        <v>72500</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15373,17 +15241,17 @@
         <v>-838.1296047499998</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>73000</v>
       </c>
       <c r="J440" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L440" t="n">
@@ -15414,11 +15282,13 @@
         <v>-820.1880868999998</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>72600</v>
+      </c>
       <c r="J441" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15453,11 +15323,13 @@
         <v>-800.1895752499998</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>72800</v>
+      </c>
       <c r="J442" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15492,11 +15364,13 @@
         <v>-800.1895752499998</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>72900</v>
+      </c>
       <c r="J443" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15531,11 +15405,13 @@
         <v>-808.3116752499999</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>72900</v>
+      </c>
       <c r="J444" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15570,13 +15446,13 @@
         <v>-822.1809752499998</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>72650</v>
       </c>
       <c r="J445" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15611,11 +15487,13 @@
         <v>-822.1809752499998</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>72550</v>
+      </c>
       <c r="J446" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15650,11 +15528,13 @@
         <v>-815.1259752499999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>72550</v>
+      </c>
       <c r="J447" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15689,11 +15569,13 @@
         <v>-819.5261752499999</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>72750</v>
+      </c>
       <c r="J448" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15728,11 +15610,13 @@
         <v>-820.3261752499999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>72700</v>
+      </c>
       <c r="J449" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15767,11 +15651,13 @@
         <v>-800.3261752499999</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>72600</v>
+      </c>
       <c r="J450" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15806,11 +15692,13 @@
         <v>-821.5123752499999</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>72750</v>
+      </c>
       <c r="J451" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15845,11 +15733,13 @@
         <v>-815.5612752499999</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>72700</v>
+      </c>
       <c r="J452" t="n">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15862,6 +15752,6 @@
       <c r="M452" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DASH.xlsx
+++ b/BackTest/2020-01-13 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>412.1814</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>429.8304</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>429.8904</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>429.7951</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>429.8051</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>429.7351</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>430.00801134</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>442.01261134</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>376.53731134</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>365.35361134</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>354.0542494700001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>352.19654947</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>352.19654947</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>318.00854947</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>318.47394947</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>318.47394947</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>323.8436494700001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>332.18364947</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>332.18364947</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -6160,17 +6160,11 @@
         <v>-286.6833504499999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>72000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6199,17 +6193,11 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>72100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6238,17 +6226,11 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>72050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6277,17 +6259,11 @@
         <v>-290.8433504499999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>72050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6316,17 +6292,11 @@
         <v>-280.6833504499999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>72050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6355,17 +6325,11 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>72100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6394,17 +6358,11 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>72200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6433,17 +6391,11 @@
         <v>-262.8533504499999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>72200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6472,17 +6424,11 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>72200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6511,17 +6457,11 @@
         <v>-259.4853504499999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>72450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6550,17 +6490,11 @@
         <v>-258.3343504499999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>72450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6589,17 +6523,11 @@
         <v>-254.3343504499999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>72500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6628,17 +6556,11 @@
         <v>-175.5916504499999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>72750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6667,17 +6589,11 @@
         <v>-178.5916504499999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>72950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6710,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6747,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6932,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7043,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7080,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7191,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7265,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7302,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7487,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7561,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7635,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7672,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7709,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7783,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7857,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7968,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8005,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8042,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8079,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8112,16 +7876,14 @@
         <v>109.7359136200001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8180,7 +7942,7 @@
         <v>99.43951362000014</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8213,7 +7975,7 @@
         <v>99.44651362000015</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8246,7 +8008,7 @@
         <v>111.8870136200001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8279,7 +8041,7 @@
         <v>114.6934201300001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8312,7 +8074,7 @@
         <v>116.9379201300002</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8345,7 +8107,7 @@
         <v>82.59462013000015</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8378,7 +8140,7 @@
         <v>82.61462013000015</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8411,7 +8173,7 @@
         <v>100.9958201300001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8444,7 +8206,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8477,7 +8239,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8510,7 +8272,7 @@
         <v>110.1984201300001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8543,7 +8305,7 @@
         <v>164.5988201300001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8576,7 +8338,7 @@
         <v>96.25572013000014</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8609,7 +8371,7 @@
         <v>72.06952013000014</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8642,7 +8404,7 @@
         <v>72.11396013000014</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8675,7 +8437,7 @@
         <v>71.96596013000014</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8708,7 +8470,7 @@
         <v>78.47985539000014</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8741,7 +8503,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8774,7 +8536,7 @@
         <v>79.96696013000015</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8807,7 +8569,7 @@
         <v>79.77376013000014</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8939,7 +8701,7 @@
         <v>48.59516013000014</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9038,7 +8800,7 @@
         <v>19.05636013000014</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9104,7 +8866,7 @@
         <v>18.04426013000014</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9137,7 +8899,7 @@
         <v>26.47796013000014</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9236,7 +8998,7 @@
         <v>15.89276013000014</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9269,7 +9031,7 @@
         <v>24.21276013000014</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9302,7 +9064,7 @@
         <v>24.21276013000014</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9335,7 +9097,7 @@
         <v>24.22956013000014</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9368,7 +9130,7 @@
         <v>17.05196013000014</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9599,7 +9361,7 @@
         <v>1.71636013000014</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -14681,14 +14443,10 @@
         <v>-783.3477678899999</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>71850</v>
-      </c>
-      <c r="J426" t="n">
-        <v>71850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
@@ -14718,95 +14476,89 @@
         <v>-782.7866678899999</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>72400</v>
-      </c>
-      <c r="J427" t="n">
-        <v>71850</v>
-      </c>
-      <c r="K427" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>72500</v>
+      </c>
+      <c r="C428" t="n">
+        <v>72500</v>
+      </c>
+      <c r="D428" t="n">
+        <v>72500</v>
+      </c>
+      <c r="E428" t="n">
+        <v>72500</v>
+      </c>
+      <c r="F428" t="n">
+        <v>75.191</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-857.9776678899999</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>72550</v>
+      </c>
+      <c r="J428" t="n">
+        <v>72550</v>
+      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>72250</v>
+      </c>
+      <c r="C429" t="n">
+        <v>72250</v>
+      </c>
+      <c r="D429" t="n">
+        <v>72250</v>
+      </c>
+      <c r="E429" t="n">
+        <v>72250</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1.3625</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-859.3401678899999</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>72500</v>
+      </c>
+      <c r="J429" t="n">
+        <v>72550</v>
+      </c>
+      <c r="K429" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>72500</v>
-      </c>
-      <c r="C428" t="n">
-        <v>72500</v>
-      </c>
-      <c r="D428" t="n">
-        <v>72500</v>
-      </c>
-      <c r="E428" t="n">
-        <v>72500</v>
-      </c>
-      <c r="F428" t="n">
-        <v>75.191</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-857.9776678899999</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>71850</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>72250</v>
-      </c>
-      <c r="C429" t="n">
-        <v>72250</v>
-      </c>
-      <c r="D429" t="n">
-        <v>72250</v>
-      </c>
-      <c r="E429" t="n">
-        <v>72250</v>
-      </c>
-      <c r="F429" t="n">
-        <v>1.3625</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-859.3401678899999</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>72500</v>
-      </c>
-      <c r="J429" t="n">
-        <v>72500</v>
-      </c>
-      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14841,7 +14593,7 @@
         <v>72250</v>
       </c>
       <c r="J430" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -14882,7 +14634,7 @@
         <v>72300</v>
       </c>
       <c r="J431" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14917,13 +14669,11 @@
         <v>-852.5657678899998</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>73050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14958,13 +14708,11 @@
         <v>-856.7257678899998</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>73050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15003,7 +14751,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15038,13 +14786,11 @@
         <v>-856.7257678899998</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>73000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15083,7 +14829,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15118,13 +14864,11 @@
         <v>-807.4551047499998</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>73800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15159,13 +14903,11 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>72950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15200,13 +14942,11 @@
         <v>-806.5164047499998</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>73000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15241,13 +14981,11 @@
         <v>-838.1296047499998</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>73000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15282,13 +15020,11 @@
         <v>-820.1880868999998</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>72600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15329,7 +15065,7 @@
         <v>72800</v>
       </c>
       <c r="J442" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15370,7 +15106,7 @@
         <v>72900</v>
       </c>
       <c r="J443" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15411,7 +15147,7 @@
         <v>72900</v>
       </c>
       <c r="J444" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15452,7 +15188,7 @@
         <v>72650</v>
       </c>
       <c r="J445" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15493,7 +15229,7 @@
         <v>72550</v>
       </c>
       <c r="J446" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15528,13 +15264,11 @@
         <v>-815.1259752499999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
         <v>72550</v>
-      </c>
-      <c r="J447" t="n">
-        <v>72500</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15575,7 +15309,7 @@
         <v>72750</v>
       </c>
       <c r="J448" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15616,7 +15350,7 @@
         <v>72700</v>
       </c>
       <c r="J449" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15657,7 +15391,7 @@
         <v>72600</v>
       </c>
       <c r="J450" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15698,7 +15432,7 @@
         <v>72750</v>
       </c>
       <c r="J451" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15739,7 +15473,7 @@
         <v>72700</v>
       </c>
       <c r="J452" t="n">
-        <v>72500</v>
+        <v>72550</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15752,6 +15486,6 @@
       <c r="M452" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DASH.xlsx
+++ b/BackTest/2020-01-13 BackTest DASH.xlsx
@@ -451,7 +451,7 @@
         <v>412.1814</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>429.8304</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>429.8904</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>429.7951</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>429.8051</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>429.7351</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>430.00801134</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>431.60031134</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>442.01261134</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>416.98471134</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>376.53731134</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>365.35361134</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>196.8670136200001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>195.8670136200001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>217.0147136200001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>195.1330136200001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>195.6530136200001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>109.7359136200001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>109.7429136200001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>99.43951362000014</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>99.44651362000015</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>111.8870136200001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>114.6934201300001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>116.9379201300002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>82.59462013000015</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>82.61462013000015</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>100.9958201300001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>110.6096201300001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>110.1984201300001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>164.5988201300001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>96.25572013000014</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>72.06952013000014</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -14509,14 +14509,10 @@
         <v>-857.9776678899999</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>72550</v>
-      </c>
-      <c r="J428" t="n">
-        <v>72550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
@@ -14546,452 +14542,424 @@
         <v>-859.3401678899999</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>72500</v>
-      </c>
-      <c r="J429" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K429" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>72700</v>
+      </c>
+      <c r="C430" t="n">
+        <v>72300</v>
+      </c>
+      <c r="D430" t="n">
+        <v>72700</v>
+      </c>
+      <c r="E430" t="n">
+        <v>72300</v>
+      </c>
+      <c r="F430" t="n">
+        <v>5.496</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-853.8441678899999</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>72450</v>
+      </c>
+      <c r="C431" t="n">
+        <v>73050</v>
+      </c>
+      <c r="D431" t="n">
+        <v>73050</v>
+      </c>
+      <c r="E431" t="n">
+        <v>72450</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1.2784</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-852.5657678899998</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>72300</v>
+      </c>
+      <c r="J431" t="n">
+        <v>72300</v>
+      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>73100</v>
+      </c>
+      <c r="C432" t="n">
+        <v>73050</v>
+      </c>
+      <c r="D432" t="n">
+        <v>73250</v>
+      </c>
+      <c r="E432" t="n">
+        <v>73050</v>
+      </c>
+      <c r="F432" t="n">
+        <v>49.1396</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-852.5657678899998</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>73050</v>
+      </c>
+      <c r="J432" t="n">
+        <v>72300</v>
+      </c>
+      <c r="K432" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>72700</v>
-      </c>
-      <c r="C430" t="n">
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C433" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D433" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E433" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F433" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-856.7257678899998</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>73050</v>
+      </c>
+      <c r="J433" t="n">
         <v>72300</v>
       </c>
-      <c r="D430" t="n">
-        <v>72700</v>
-      </c>
-      <c r="E430" t="n">
-        <v>72300</v>
-      </c>
-      <c r="F430" t="n">
-        <v>5.496</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-853.8441678899999</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>72250</v>
-      </c>
-      <c r="J430" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K430" t="inlineStr">
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C434" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D434" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E434" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F434" t="n">
+        <v>92.51649999999999</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-856.7257678899998</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C435" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D435" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E435" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-856.7257678899998</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>73200</v>
+      </c>
+      <c r="C436" t="n">
+        <v>73800</v>
+      </c>
+      <c r="D436" t="n">
+        <v>73800</v>
+      </c>
+      <c r="E436" t="n">
+        <v>73200</v>
+      </c>
+      <c r="F436" t="n">
+        <v>49.87146314</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-806.8543047499998</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>73000</v>
+      </c>
+      <c r="J436" t="n">
+        <v>73000</v>
+      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>72950</v>
+      </c>
+      <c r="C437" t="n">
+        <v>72950</v>
+      </c>
+      <c r="D437" t="n">
+        <v>72950</v>
+      </c>
+      <c r="E437" t="n">
+        <v>72950</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-807.4551047499998</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>73000</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C438" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D438" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E438" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.9387</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-806.5164047499998</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>72950</v>
+      </c>
+      <c r="J438" t="n">
+        <v>73000</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="F439" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-806.5164047499998</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="J439" t="n">
+        <v>73000</v>
+      </c>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C440" t="n">
+        <v>72600</v>
+      </c>
+      <c r="D440" t="n">
+        <v>73000</v>
+      </c>
+      <c r="E440" t="n">
+        <v>72600</v>
+      </c>
+      <c r="F440" t="n">
+        <v>31.6132</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-838.1296047499998</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>73000</v>
+      </c>
+      <c r="J440" t="n">
+        <v>73000</v>
+      </c>
+      <c r="K440" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>72450</v>
-      </c>
-      <c r="C431" t="n">
-        <v>73050</v>
-      </c>
-      <c r="D431" t="n">
-        <v>73050</v>
-      </c>
-      <c r="E431" t="n">
-        <v>72450</v>
-      </c>
-      <c r="F431" t="n">
-        <v>1.2784</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-852.5657678899998</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>72300</v>
-      </c>
-      <c r="J431" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>73100</v>
-      </c>
-      <c r="C432" t="n">
-        <v>73050</v>
-      </c>
-      <c r="D432" t="n">
-        <v>73250</v>
-      </c>
-      <c r="E432" t="n">
-        <v>73050</v>
-      </c>
-      <c r="F432" t="n">
-        <v>49.1396</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-852.5657678899998</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C433" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D433" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E433" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F433" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-856.7257678899998</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C434" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D434" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E434" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F434" t="n">
-        <v>92.51649999999999</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-856.7257678899998</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C435" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D435" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E435" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F435" t="n">
-        <v>1</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-856.7257678899998</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>73200</v>
-      </c>
-      <c r="C436" t="n">
-        <v>73800</v>
-      </c>
-      <c r="D436" t="n">
-        <v>73800</v>
-      </c>
-      <c r="E436" t="n">
-        <v>73200</v>
-      </c>
-      <c r="F436" t="n">
-        <v>49.87146314</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-806.8543047499998</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>72950</v>
-      </c>
-      <c r="C437" t="n">
-        <v>72950</v>
-      </c>
-      <c r="D437" t="n">
-        <v>72950</v>
-      </c>
-      <c r="E437" t="n">
-        <v>72950</v>
-      </c>
-      <c r="F437" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-807.4551047499998</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C438" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D438" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E438" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F438" t="n">
-        <v>0.9387</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-806.5164047499998</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C439" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D439" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E439" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F439" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-806.5164047499998</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>73000</v>
-      </c>
-      <c r="C440" t="n">
-        <v>72600</v>
-      </c>
-      <c r="D440" t="n">
-        <v>73000</v>
-      </c>
-      <c r="E440" t="n">
-        <v>72600</v>
-      </c>
-      <c r="F440" t="n">
-        <v>31.6132</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-838.1296047499998</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>72550</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15020,11 +14988,13 @@
         <v>-820.1880868999998</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>72600</v>
+      </c>
       <c r="J441" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15065,7 +15035,7 @@
         <v>72800</v>
       </c>
       <c r="J442" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15106,7 +15076,7 @@
         <v>72900</v>
       </c>
       <c r="J443" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15147,7 +15117,7 @@
         <v>72900</v>
       </c>
       <c r="J444" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15188,7 +15158,7 @@
         <v>72650</v>
       </c>
       <c r="J445" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15229,7 +15199,7 @@
         <v>72550</v>
       </c>
       <c r="J446" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15264,11 +15234,13 @@
         <v>-815.1259752499999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>72550</v>
+      </c>
       <c r="J447" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15309,7 +15281,7 @@
         <v>72750</v>
       </c>
       <c r="J448" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15350,7 +15322,7 @@
         <v>72700</v>
       </c>
       <c r="J449" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15391,7 +15363,7 @@
         <v>72600</v>
       </c>
       <c r="J450" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15432,7 +15404,7 @@
         <v>72750</v>
       </c>
       <c r="J451" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15473,7 +15445,7 @@
         <v>72700</v>
       </c>
       <c r="J452" t="n">
-        <v>72550</v>
+        <v>73000</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
